--- a/biology/Botanique/Symphonia_(plante)/Symphonia_(plante).xlsx
+++ b/biology/Botanique/Symphonia_(plante)/Symphonia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Symphonia est un genre de plantes à fleurs de la famille des Clusiaceae. Ce sont des plantes tropicales ligneuses. On trouve ses représentants en Amérique tropicale, Afrique et Madagascar[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symphonia est un genre de plantes à fleurs de la famille des Clusiaceae. Ce sont des plantes tropicales ligneuses. On trouve ses représentants en Amérique tropicale, Afrique et Madagascar.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (11 septembre 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (11 septembre 2013) :
 Symphonia albioculalis
 Symphonia leucostictalis
 Symphonia marionalis
 Symphonia multipictalis
 Symphonia nymphulalis
-Selon The Plant List            (11 septembre 2013)[4] :
+Selon The Plant List            (11 septembre 2013) :
 Symphonia fasciculata (Noronha ex Thouars) Vesque
 Symphonia gabonensis (Vesque) Pierre
 Symphonia globulifera L.f.
@@ -529,7 +543,7 @@
 Symphonia tanalensis Jum. &amp; H. Perrier
 Symphonia urophylla (Decne. ex Planch. &amp; Triana) Benth. &amp; Hook. f. ex Vesque
 Symphonia verrucosa (Hils. &amp; Bojer ex Planch. &amp; Triana) Benth. &amp; Hook. f.
-Selon Tropicos                                           (11 septembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 septembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 Symphonia acuminata Baker
 Symphonia ambrensis H. Perrier
 Symphonia clusioides Baker
